--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3112.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3112.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.776815485723244</v>
+        <v>1.440906882286072</v>
       </c>
       <c r="B1">
-        <v>2.053098152735908</v>
+        <v>2.371410608291626</v>
       </c>
       <c r="C1">
-        <v>2.597242716875022</v>
+        <v>2.956190586090088</v>
       </c>
       <c r="D1">
-        <v>4.809128490141318</v>
+        <v>3.432315587997437</v>
       </c>
       <c r="E1">
-        <v>0.8543014539185737</v>
+        <v>1.956582307815552</v>
       </c>
     </row>
   </sheetData>
